--- a/Data/ferny/Progression Education - 3590863552/Progression Education - 3590863552.xlsx
+++ b/Data/ferny/Progression Education - 3590863552/Progression Education - 3590863552.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bjmi0\Desktop\림월드 번역\Progression Education - 3590863552\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A200B5D7-2082-4E46-AFE6-036FCB05C0EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B98D34FF-6D83-4079-B1B8-66BB2AEA8861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="695">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="702">
   <si>
     <t>Class+Node [(Identifier (Key)]</t>
   </si>
@@ -65,6 +65,9 @@
     <t>Education</t>
   </si>
   <si>
+    <t>교육</t>
+  </si>
+  <si>
     <t>JobDef+PE_AttendClass.reportString</t>
   </si>
   <si>
@@ -80,6 +83,18 @@
     <t>JobDef+PE_RingBell.reportString</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>수업 참여 중</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>PE_RingBell.reportString</t>
   </si>
   <si>
@@ -89,6 +104,18 @@
     <t>JobDef+PE_Teach.reportString</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>종 울리는 중</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>PE_Teach.reportString</t>
   </si>
   <si>
@@ -98,6 +125,18 @@
     <t>JobDef+PE_AttendMeleeClass.reportString</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>수업 진행 중</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>PE_AttendMeleeClass.reportString</t>
   </si>
   <si>
@@ -107,6 +146,18 @@
     <t>JobDef+PE_AttendShootingClass.reportString</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>격투 훈련 중</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>PE_AttendShootingClass.reportString</t>
   </si>
   <si>
@@ -116,6 +167,18 @@
     <t>MainButtonDef+PE_Education.label</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>사격 훈련 중</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>MainButtonDef</t>
   </si>
   <si>
@@ -137,6 +200,18 @@
     <t>ResearchProjectDef+Ferny_NeolithicEducation.label</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>교실과 수업 내용을 정합니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>ResearchProjectDef</t>
   </si>
   <si>
@@ -149,6 +224,18 @@
     <t>ResearchProjectDef+Ferny_NeolithicEducation.description</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>기초 교육기술</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>Ferny_NeolithicEducation.description</t>
   </si>
   <si>
@@ -158,6 +245,18 @@
     <t>ResearchProjectDef+Ferny_IndustrialEducation.label</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>학생들을 교육하기 위한 기초적인 학업 설비를 만들 수 있습니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>Ferny_IndustrialEducation.label</t>
   </si>
   <si>
@@ -167,6 +266,18 @@
     <t>ResearchProjectDef+Ferny_IndustrialEducation.description</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>표준 교육기술</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>Ferny_IndustrialEducation.description</t>
   </si>
   <si>
@@ -176,6 +287,18 @@
     <t>ResearchProjectDef+Ferny_SpacerEducation.label</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>현대 기술로 더욱 효과적인 학업 설비를 만들 수 있습니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>Ferny_SpacerEducation.label</t>
   </si>
   <si>
@@ -185,6 +308,18 @@
     <t>ResearchProjectDef+Ferny_SpacerEducation.description</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>고급 교육기술</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>Ferny_SpacerEducation.description</t>
   </si>
   <si>
@@ -194,6 +329,18 @@
     <t>ThingDef+PE_TribalBell.label</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>학생들이 빠르게 수업에 몰입할 수 있는 홀로그램과 터치스크린 학업 설비를 만들 수 있습니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>ThingDef</t>
   </si>
   <si>
@@ -206,6 +353,18 @@
     <t>ThingDef+PE_TribalBell.description</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>교실 종</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>PE_TribalBell.description</t>
   </si>
   <si>
@@ -215,6 +374,18 @@
     <t>ThingDef+PE_SchoolBell.label</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>수업 시작을 위해 학생들을 부르는 조용하고 느린 종입니다. 교사가 직접 울려야 합니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>PE_SchoolBell.label</t>
   </si>
   <si>
@@ -224,12 +395,48 @@
     <t>ThingDef+PE_SchoolBell.description</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>학교 종</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>PE_SchoolBell.description</t>
   </si>
   <si>
     <t>ThingDef+PE_ElectricSchoolBell.label</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>A loud bell used to signal the start of classes. A teacher will manually ring this to call students.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>수업 시작을 위해 학생들을 부르는 시끄러운 종입니다. 교사가 직접 울려야 합니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>PE_ElectricSchoolBell.label</t>
   </si>
   <si>
@@ -239,6 +446,18 @@
     <t>ThingDef+PE_ElectricSchoolBell.description</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>전기 학교 종</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>PE_ElectricSchoolBell.description</t>
   </si>
   <si>
@@ -248,6 +467,18 @@
     <t>ThingDef+PE_LessonStone.label</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>자동으로 수업 시작을 알리는 종입니다. 직접 울릴 필요가 없어 일반 종보다 신뢰성이 높습니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>PE_LessonStone.label</t>
   </si>
   <si>
@@ -257,6 +488,18 @@
     <t>ThingDef+PE_LessonStone.description</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>석재 칠판</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>PE_LessonStone.description</t>
   </si>
   <si>
@@ -266,12 +509,27 @@
     <t>ThingDef+PE_LargeBlackboard.label</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>기초적인 수업을 가르치기 위한 울퉁불퉁한 판입니다. 칠판을 설치한 방은 교실로 지정되며 수업을 배정할 수 있습니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>PE_LargeBlackboard.label</t>
   </si>
   <si>
     <t>blackboard (1x3)</t>
   </si>
   <si>
+    <t>칠판 (1x3)</t>
+  </si>
+  <si>
     <t>ThingDef+PE_LargeBlackboard.description</t>
   </si>
   <si>
@@ -284,6 +542,18 @@
     <t>ThingDef+PE_Whiteboard.label</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>분필로 글을 쓰기 위한 돌 같은 질감의 평평한 판입니다. 칠판을 설치한 방은 교실로 지정되며 수업을 배정할 수 있습니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>PE_Whiteboard.label</t>
   </si>
   <si>
@@ -293,6 +563,18 @@
     <t>ThingDef+PE_Whiteboard.description</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>화이트보드 칠판 (1x2)</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>PE_Whiteboard.description</t>
   </si>
   <si>
@@ -302,6 +584,18 @@
     <t>ThingDef+PE_LargeWhiteboard.label</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>마커로 글을 쓰기 위한 평평한 판입니다. 매끄러운 표면 덕분에 쓰고 지우기가 쉬워 수업의 효율이 올라갑니다. 칠판을 설치한 방은 교실로 지정되며 수업을 배정할 수 있습니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>PE_LargeWhiteboard.label</t>
   </si>
   <si>
@@ -311,21 +605,45 @@
     <t>ThingDef+PE_LargeWhiteboard.description</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>화이트보드 칠판 (1x3)</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>PE_LargeWhiteboard.description</t>
   </si>
   <si>
+    <t>PE_HoloEducatorScreen.label</t>
+  </si>
+  <si>
     <t>ThingDef+PE_HoloEducatorScreen.label</t>
   </si>
   <si>
-    <t>PE_HoloEducatorScreen.label</t>
-  </si>
-  <si>
     <t>holo-educator screen (1x2)</t>
   </si>
   <si>
     <t>ThingDef+PE_HoloEducatorScreen.description</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>홀로그램 칠판 (1x2)</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>PE_HoloEducatorScreen.description</t>
   </si>
   <si>
@@ -335,6 +653,18 @@
     <t>ThingDef+PE_LargeHoloEducatorScreen.label</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>번개같은 속도로 알아서 수업을 진행하는 홀로그램 디스플레이입니다. 칠판을 설치한 방은 교실로 지정되며 수업을 배정할 수 있습니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>PE_LargeHoloEducatorScreen.label</t>
   </si>
   <si>
@@ -344,21 +674,45 @@
     <t>ThingDef+PE_LargeHoloEducatorScreen.description</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>홀로그램 칠판 (1x3)</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>PE_LargeHoloEducatorScreen.description</t>
   </si>
   <si>
+    <t>RoyalCrib.label</t>
+  </si>
+  <si>
     <t>ThingDef+RoyalCrib.label</t>
   </si>
   <si>
-    <t>RoyalCrib.label</t>
-  </si>
-  <si>
     <t>royal crib</t>
   </si>
   <si>
     <t>ThingDef+RoyalCrib.description</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>고급 아기 침대</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>RoyalCrib.description</t>
   </si>
   <si>
@@ -368,6 +722,18 @@
     <t>ThingDef+TribalCrib.label</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>금으로 장식까지 한, 안전 칸막이로 양옆을 막은 호화로운 침대입니다. 졸린 아기에게 안성맞춤입니다. 높은 품질의 침대는 아기를 행복하게 해줍니다. 아기 침대는 한 방에 여러 개를 배치해도 방이 막사로 취급되지 않습니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>TribalCrib.label</t>
   </si>
   <si>
@@ -377,6 +743,18 @@
     <t>ThingDef+TribalCrib.description</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>천 아기 침대</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>TribalCrib.description</t>
   </si>
   <si>
@@ -386,6 +764,18 @@
     <t>ThingDef+PE_StoneSchoolDesk.label</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>천을 얼기설기 엮어 만든 침대입니다. 졸린 아기에게 안성맞춤입니다. 높은 품질의 침대는 아기를 행복하게 해줍니다. 아기 침대는 한 방에 여러 개를 배치해도 방이 막사로 취급되지 않습니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>PE_StoneSchoolDesk.label</t>
   </si>
   <si>
@@ -395,6 +785,18 @@
     <t>ThingDef+PE_StoneSchoolDesk.description</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>낡은 교실 책상</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>PE_StoneSchoolDesk.description</t>
   </si>
   <si>
@@ -404,6 +806,18 @@
     <t>ThingDef+PE_TouchscreenSchoolDesk.label</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>약간 불편하지만, 학생들이 수업을 배울 수 있는 책상입니다. 대부분의 수업을 느린 속도로 진행합니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>PE_TouchscreenSchoolDesk.label</t>
   </si>
   <si>
@@ -413,10 +827,22 @@
     <t>ThingDef+PE_TouchscreenSchoolDesk.description</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>터치스크린 교실 책상</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>PE_TouchscreenSchoolDesk.description</t>
   </si>
   <si>
-    <t>todo.</t>
+    <t>Low gear</t>
   </si>
   <si>
     <t>ThingDef+PE_Projector.label</t>
@@ -431,6 +857,18 @@
     <t>ThingDef+PE_Projector.description</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>빔 프로젝터</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>PE_Projector.description</t>
   </si>
   <si>
@@ -440,12 +878,27 @@
     <t>ThingDef+PE_StrikingBoard.label</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>학습 효율 향상을 위해 칠판에 연결할 수 있는 빔 프로젝터입니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>PE_StrikingBoard.label</t>
   </si>
   <si>
     <t>striking board</t>
   </si>
   <si>
+    <t>타격판</t>
+  </si>
+  <si>
     <t>ThingDef+PE_StrikingBoard.description</t>
   </si>
   <si>
@@ -458,6 +911,18 @@
     <t>ThingDef+PE_Cadaver.label</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>어지간한 타격에 버티도록 설계된 널빤지입니다. 학생들이 격투를 훈련할 수 있습니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>PE_Cadaver.label</t>
   </si>
   <si>
@@ -467,6 +932,18 @@
     <t>ThingDef+PE_Cadaver.description</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>해부용 모조 시체</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>PE_Cadaver.description</t>
   </si>
   <si>
@@ -476,6 +953,18 @@
     <t>ThingDef+PE_ShootingTarget.label</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>의료 실습을 위해 세세한 근육까지 재현한 모조 시체입니다. 학생들이 의학을 훈련할 수 있습니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>PE_ShootingTarget.label</t>
   </si>
   <si>
@@ -485,6 +974,18 @@
     <t>ThingDef+PE_ShootingTarget.description</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>사격 훈련대</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>PE_ShootingTarget.description</t>
   </si>
   <si>
@@ -494,12 +995,27 @@
     <t>ThingDef+PE_Gun_AssaultRifleTraining.label</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>연습용 소총이 장착된 금속 표적입니다. 학생들이 사격을 훈련할 수 있습니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>PE_Gun_AssaultRifleTraining.label</t>
   </si>
   <si>
     <t>training rifle</t>
   </si>
   <si>
+    <t>훈련용 소총</t>
+  </si>
+  <si>
     <t>ThingDef+PE_Gun_AssaultRifleTraining.description</t>
   </si>
   <si>
@@ -512,6 +1028,18 @@
     <t>ThingDef+PE_Gun_AssaultRifleTraining.verbs.Verb_Shoot.label</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>순수하게 교육용으로 설계된 무기입니다. 총알은 아무런 피해도 주지 않습니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>PE_Gun_AssaultRifleTraining.verbs.Verb_Shoot.label</t>
   </si>
   <si>
@@ -524,6 +1052,9 @@
     <t>stock</t>
   </si>
   <si>
+    <t>개머리판</t>
+  </si>
+  <si>
     <t>ThingDef+PE_Gun_AssaultRifleTraining.tools.1.label</t>
   </si>
   <si>
@@ -533,6 +1064,9 @@
     <t>barrel</t>
   </si>
   <si>
+    <t>총열</t>
+  </si>
+  <si>
     <t>ThingDef+PE_Bullet_AssaultRifleTraining.label</t>
   </si>
   <si>
@@ -545,12 +1079,27 @@
     <t>ThingDef+PE_PracticeShortBow.label</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>훈련용 소총 탄환</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>PE_PracticeShortBow.label</t>
   </si>
   <si>
     <t>training bow</t>
   </si>
   <si>
+    <t>훈련용 활</t>
+  </si>
+  <si>
     <t>ThingDef+PE_PracticeShortBow.description</t>
   </si>
   <si>
@@ -560,6 +1109,18 @@
     <t>ThingDef+PE_PracticeShortBow.verbs.Verb_Shoot.label</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>순수하게 교육용으로 설계된 무기입니다. 화살은 아무런 피해도 주지 않습니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>PE_PracticeShortBow.verbs.Verb_Shoot.label</t>
   </si>
   <si>
@@ -572,6 +1133,9 @@
     <t>limb</t>
   </si>
   <si>
+    <t>활대</t>
+  </si>
+  <si>
     <t>ThingDef+PE_Bullet_PracticeShortBow.label</t>
   </si>
   <si>
@@ -584,42 +1148,66 @@
     <t>TraitDef+PE_LowTechProficiency.label</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>훈련용 화살</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>TraitDef</t>
   </si>
   <si>
     <t>PE_LowTechProficiency.label</t>
   </si>
   <si>
+    <t>TraitDef+PE_LowTechProficiency.description</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>low-tech proficient</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>PE_LowTechProficiency.description</t>
+  </si>
+  <si>
+    <t>This person is proficient with low-tech equipment.</t>
+  </si>
+  <si>
+    <t>TraitDef+PE_LowTechProficiency.degreeDatas.0.label</t>
+  </si>
+  <si>
+    <t>PE_LowTechProficiency.degreeDatas.0.label</t>
+  </si>
+  <si>
     <t>low-tech proficient</t>
   </si>
   <si>
-    <t>TraitDef+PE_LowTechProficiency.description</t>
-  </si>
-  <si>
-    <t>PE_LowTechProficiency.description</t>
-  </si>
-  <si>
-    <t>This person is proficient with low-tech equipment.</t>
-  </si>
-  <si>
-    <t>TraitDef+PE_LowTechProficiency.degreeDatas.0.label</t>
-  </si>
-  <si>
-    <t>PE_LowTechProficiency.degreeDatas.0.label</t>
+    <t>PE_LowTechProficiency.degreeDatas.0.description</t>
   </si>
   <si>
     <t>TraitDef+PE_LowTechProficiency.degreeDatas.0.description</t>
   </si>
   <si>
-    <t>PE_LowTechProficiency.degreeDatas.0.description</t>
+    <t>PE_FirearmProficiency.label</t>
   </si>
   <si>
     <t>TraitDef+PE_FirearmProficiency.label</t>
   </si>
   <si>
-    <t>PE_FirearmProficiency.label</t>
-  </si>
-  <si>
     <t>firearm proficient</t>
   </si>
   <si>
@@ -644,18 +1232,30 @@
     <t>PE_FirearmProficiency.degreeDatas.0.description</t>
   </si>
   <si>
+    <t>PE_HighTechProficiency.label</t>
+  </si>
+  <si>
     <t>TraitDef+PE_HighTechProficiency.label</t>
   </si>
   <si>
-    <t>PE_HighTechProficiency.label</t>
-  </si>
-  <si>
     <t>high-tech proficient</t>
   </si>
   <si>
     <t>TraitDef+PE_HighTechProficiency.description</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>첨단 장비 숙련</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>PE_HighTechProficiency.description</t>
   </si>
   <si>
@@ -665,27 +1265,42 @@
     <t>TraitDef+PE_HighTechProficiency.degreeDatas.0.label</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>첨단 장비를 능숙하게 다룹니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>PE_HighTechProficiency.degreeDatas.0.label</t>
   </si>
   <si>
+    <t>PE_HighTechProficiency.degreeDatas.0.description</t>
+  </si>
+  <si>
     <t>TraitDef+PE_HighTechProficiency.degreeDatas.0.description</t>
   </si>
   <si>
-    <t>PE_HighTechProficiency.degreeDatas.0.description</t>
+    <t>Keyed</t>
   </si>
   <si>
     <t>Keyed+PE_Create</t>
   </si>
   <si>
-    <t>Keyed</t>
-  </si>
-  <si>
     <t>PE_Create</t>
   </si>
   <si>
     <t>Create</t>
   </si>
   <si>
+    <t>생성</t>
+  </si>
+  <si>
     <t>Keyed+PE_Select</t>
   </si>
   <si>
@@ -695,6 +1310,9 @@
     <t>Select</t>
   </si>
   <si>
+    <t>선택</t>
+  </si>
+  <si>
     <t>Keyed+PE_PasteHex</t>
   </si>
   <si>
@@ -707,6 +1325,18 @@
     <t>Keyed+PE_Classes</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>헥스값 붙여넣기</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>PE_Classes</t>
   </si>
   <si>
@@ -716,12 +1346,27 @@
     <t>Keyed+PE_Classrooms</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>현재 수업</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>PE_Classrooms</t>
   </si>
   <si>
     <t>Classrooms</t>
   </si>
   <si>
+    <t>교실</t>
+  </si>
+  <si>
     <t>Keyed+PE_Participants</t>
   </si>
   <si>
@@ -731,6 +1376,9 @@
     <t>Participants</t>
   </si>
   <si>
+    <t>참여자</t>
+  </si>
+  <si>
     <t>Keyed+PE_ProgressFormat</t>
   </si>
   <si>
@@ -752,12 +1400,27 @@
     <t>Keyed+PE_ClassScheduling</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>일정 변경</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>PE_ClassScheduling</t>
   </si>
   <si>
     <t>View schedule</t>
   </si>
   <si>
+    <t>일정 보기</t>
+  </si>
+  <si>
     <t>Keyed+PE_EstimatedHourlyProgress</t>
   </si>
   <si>
@@ -770,12 +1433,27 @@
     <t>Keyed+PE_XpPerHour</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>시간당 진행도</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>PE_XpPerHour</t>
   </si>
   <si>
     <t>xp/hour</t>
   </si>
   <si>
+    <t>시간당 경험치</t>
+  </si>
+  <si>
     <t>Keyed+PE_Xp</t>
   </si>
   <si>
@@ -785,6 +1463,9 @@
     <t>{0} xp</t>
   </si>
   <si>
+    <t>{0} 경험치</t>
+  </si>
+  <si>
     <t>Keyed+PE_PerHour</t>
   </si>
   <si>
@@ -794,6 +1475,9 @@
     <t>/hour</t>
   </si>
   <si>
+    <t>/시간</t>
+  </si>
+  <si>
     <t>Keyed+PE_ClassroomsDescription</t>
   </si>
   <si>
@@ -806,12 +1490,27 @@
     <t>Keyed+PE_CreateClass</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>정착지에 존재하는 교실을 표시합니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>PE_CreateClass</t>
   </si>
   <si>
     <t>Create a class</t>
   </si>
   <si>
+    <t>수업 생성</t>
+  </si>
+  <si>
     <t>Keyed+PE_CreateClassDesc</t>
   </si>
   <si>
@@ -824,12 +1523,27 @@
     <t>Keyed+PE_ClassName</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>교사와 학생을 지정해 새로운 수업을 진행합니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>PE_ClassName</t>
   </si>
   <si>
     <t>Class name</t>
   </si>
   <si>
+    <t>수업 이름</t>
+  </si>
+  <si>
     <t>Keyed+PE_Subject</t>
   </si>
   <si>
@@ -839,6 +1553,9 @@
     <t>Subject</t>
   </si>
   <si>
+    <t>과목</t>
+  </si>
+  <si>
     <t>Keyed+PE_SkillFocus</t>
   </si>
   <si>
@@ -851,6 +1568,18 @@
     <t>Keyed+PE_ProficiencyFocus</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>목표 기술</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>PE_ProficiencyFocus</t>
   </si>
   <si>
@@ -860,12 +1589,27 @@
     <t>Keyed+PE_SemesterGoal</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>목표 숙련</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>PE_SemesterGoal</t>
   </si>
   <si>
     <t>Semester goal</t>
   </si>
   <si>
+    <t>학기 목표</t>
+  </si>
+  <si>
     <t>Keyed+PE_ConfirmDeleteClass</t>
   </si>
   <si>
@@ -878,6 +1622,18 @@
     <t>Keyed+PE_StudyTimeNeeded</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>수업을 삭제하시겠습니까? 모든 학습 진행 상황이 초기화됩니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>PE_StudyTimeNeeded</t>
   </si>
   <si>
@@ -887,6 +1643,18 @@
     <t>Keyed+PE_Requirements</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>연속 학습 시간 필요: {0}</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>PE_Requirements</t>
   </si>
   <si>
@@ -896,6 +1664,18 @@
     <t>Keyed+PE_LearningBoard</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>필요:</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>PE_LearningBoard</t>
   </si>
   <si>
@@ -905,12 +1685,27 @@
     <t>Keyed+PE_Bell</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>칠판</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>PE_Bell</t>
   </si>
   <si>
     <t>bell</t>
   </si>
   <si>
+    <t>종</t>
+  </si>
+  <si>
     <t>Keyed+PE_SchoolDesks</t>
   </si>
   <si>
@@ -923,12 +1718,27 @@
     <t>Keyed+PE_ClassHours</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>교실 책상</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>PE_ClassHours</t>
   </si>
   <si>
     <t>Class hours:</t>
   </si>
   <si>
+    <t>수업 시간:</t>
+  </si>
+  <si>
     <t>Keyed+PE_Present</t>
   </si>
   <si>
@@ -938,6 +1748,9 @@
     <t>({0} present)</t>
   </si>
   <si>
+    <t>({0}명 참석)</t>
+  </si>
+  <si>
     <t>Keyed+PE_NotPresent</t>
   </si>
   <si>
@@ -950,12 +1763,27 @@
     <t>Keyed+PE_StartHour</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>지도에 존재하지 않음</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>PE_StartHour</t>
   </si>
   <si>
     <t>Start hour</t>
   </si>
   <si>
+    <t>시작 시간</t>
+  </si>
+  <si>
     <t>Keyed+PE_EndHour</t>
   </si>
   <si>
@@ -965,6 +1793,9 @@
     <t>End hour</t>
   </si>
   <si>
+    <t>종료 시간</t>
+  </si>
+  <si>
     <t>Keyed+PE_Classroom</t>
   </si>
   <si>
@@ -974,6 +1805,9 @@
     <t>Classroom:</t>
   </si>
   <si>
+    <t>교실:</t>
+  </si>
+  <si>
     <t>Keyed+PE_SelectClassroom</t>
   </si>
   <si>
@@ -983,6 +1817,9 @@
     <t>Select classroom</t>
   </si>
   <si>
+    <t>교실 선택</t>
+  </si>
+  <si>
     <t>Keyed+PE_NoClassroomsAvailable</t>
   </si>
   <si>
@@ -992,6 +1829,9 @@
     <t>No classrooms available.</t>
   </si>
   <si>
+    <t>사용 가능한 교실이 없습니다.</t>
+  </si>
+  <si>
     <t>Keyed+PE_NotEnoughBenches</t>
   </si>
   <si>
@@ -1004,12 +1844,27 @@
     <t>Keyed+PE_SubjectSkill</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>{0}(이)가 부족합니다. 필요: {1}, 보유: {2}.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>PE_SubjectSkill</t>
   </si>
   <si>
     <t>Skill</t>
   </si>
   <si>
+    <t>기술</t>
+  </si>
+  <si>
     <t>Keyed+PE_SubjectProficiency</t>
   </si>
   <si>
@@ -1022,6 +1877,18 @@
     <t>Keyed+PE_SubjectDaycare</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>숙련</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>PE_SubjectDaycare</t>
   </si>
   <si>
@@ -1031,6 +1898,18 @@
     <t>Keyed+PE_Daycare</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>돌봄</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>PE_Daycare</t>
   </si>
   <si>
@@ -1040,6 +1919,18 @@
     <t>Keyed+PE_RescheduleClass</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>아이들의 학습 요구를 충족합니다. 삭제될 때까지 일정에 존재합니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>PE_RescheduleClass</t>
   </si>
   <si>
@@ -1049,6 +1940,18 @@
     <t>Keyed+PE_SkillFocusMissing</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>수업 일정 변경</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>PE_SkillFocusMissing</t>
   </si>
   <si>
@@ -1058,6 +1961,18 @@
     <t>Keyed+PE_ScheduleTime</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>목표 기술이 존재하지 않음</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>PE_ScheduleTime</t>
   </si>
   <si>
@@ -1067,12 +1982,27 @@
     <t>Keyed+PE_ManageStudents</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>수업: {0}:00 - {1}:00</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>PE_ManageStudents</t>
   </si>
   <si>
     <t>Manage students</t>
   </si>
   <si>
+    <t>학생 관리</t>
+  </si>
+  <si>
     <t>Keyed+PE_RemoveStudents</t>
   </si>
   <si>
@@ -1085,6 +2015,18 @@
     <t>Keyed+PE_RemoveFromClass</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>학생 퇴출</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>PE_RemoveFromClass</t>
   </si>
   <si>
@@ -1094,6 +2036,18 @@
     <t>Keyed+PE_ConfirmRemoveStudent</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>수업에서 퇴출</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>PE_ConfirmRemoveStudent</t>
   </si>
   <si>
@@ -1103,6 +2057,18 @@
     <t>Keyed+PE_ConfirmRemoveLastStudent</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>{0}(을)를 수업에서 퇴출시키겠습니까? 다시 참가할 수 없습니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>PE_ConfirmRemoveLastStudent</t>
   </si>
   <si>
@@ -1112,12 +2078,27 @@
     <t>Keyed+PE_EditClassroom</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>이 학생을 퇴출하면 남은 학생이 없어 수업이 사라집니다. 계속하시겠습니까?</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>PE_EditClassroom</t>
   </si>
   <si>
     <t>Edit classroom</t>
   </si>
   <si>
+    <t>교실 편집</t>
+  </si>
+  <si>
     <t>Keyed+PE_ChangeColor</t>
   </si>
   <si>
@@ -1127,6 +2108,9 @@
     <t>Change color</t>
   </si>
   <si>
+    <t>색상 변경</t>
+  </si>
+  <si>
     <t>Keyed+PE_NameClassroom</t>
   </si>
   <si>
@@ -1139,12 +2123,27 @@
     <t>Keyed+PE_NewClassroomCreated</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>이름 지정</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>PE_NewClassroomCreated</t>
   </si>
   <si>
     <t>New classroom: {0}</t>
   </si>
   <si>
+    <t>새 교실: {0}</t>
+  </si>
+  <si>
     <t>Keyed+PE_NewClassroomCreatedDesc</t>
   </si>
   <si>
@@ -1157,6 +2156,18 @@
     <t>Keyed+PE_Spectators</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>교실을 만들었습니다. 수업은 하단 UI의 교육에서 관리할 수 있습니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>PE_Spectators</t>
   </si>
   <si>
@@ -1166,6 +2177,18 @@
     <t>Keyed+PE_NotParticipating</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>방청객</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>PE_NotParticipating</t>
   </si>
   <si>
@@ -1175,12 +2198,27 @@
     <t>Keyed+PE_TeacherRole</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>참여하지 않음</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>PE_TeacherRole</t>
   </si>
   <si>
     <t>teacher</t>
   </si>
   <si>
+    <t>교사</t>
+  </si>
+  <si>
     <t>Keyed+PE_StudentRole</t>
   </si>
   <si>
@@ -1190,6 +2228,9 @@
     <t>Student</t>
   </si>
   <si>
+    <t>학생</t>
+  </si>
+  <si>
     <t>Keyed+PE_TeacherRoleOnlyForAdults</t>
   </si>
   <si>
@@ -1217,6 +2258,9 @@
     <t>Class cancelled: {0}</t>
   </si>
   <si>
+    <t>수업 취소됨: {0}</t>
+  </si>
+  <si>
     <t>Keyed+PE_ClassCancelledDesc</t>
   </si>
   <si>
@@ -1229,6 +2273,18 @@
     <t>Keyed+PE_MissingStudents</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>모든 학생이 제때 수업에 참석하지 않아 "{0}" 수업이 취소되었습니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>PE_MissingStudents</t>
   </si>
   <si>
@@ -1238,6 +2294,18 @@
     <t>Keyed+PE_ClassCompleted</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>결석자: {0}</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>PE_ClassCompleted</t>
   </si>
   <si>
@@ -1247,6 +2315,18 @@
     <t>Keyed+PE_ClassCompletedDesc</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>수업 수료: {0}</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>PE_ClassCompletedDesc</t>
   </si>
   <si>
@@ -1256,6 +2336,18 @@
     <t>Keyed+PE_ClassGraduates</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>성공적으로 "{0}" 수업이 학기를 마쳤습니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>PE_ClassGraduates</t>
   </si>
   <si>
@@ -1265,6 +2357,18 @@
     <t>Keyed+PE_CannotEquipItem</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>졸업생: {0}</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>PE_CannotEquipItem</t>
   </si>
   <si>
@@ -1274,10 +2378,22 @@
     <t>Keyed+PE_ProficiencyLowTech</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>{0} 숙련을 습득해야 사용할 수 있습니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>PE_ProficiencyLowTech</t>
   </si>
   <si>
-    <t>low gear</t>
+    <t>Firearm</t>
   </si>
   <si>
     <t>Keyed+PE_ProficiencyFirearm</t>
@@ -1286,7 +2402,7 @@
     <t>PE_ProficiencyFirearm</t>
   </si>
   <si>
-    <t>firearm</t>
+    <t>High-tech</t>
   </si>
   <si>
     <t>Keyed+PE_ProficiencyHighTech</t>
@@ -1295,7 +2411,7 @@
     <t>PE_ProficiencyHighTech</t>
   </si>
   <si>
-    <t>high-tech</t>
+    <t>Children learning need speed</t>
   </si>
   <si>
     <t>Keyed+PE_StudentNotQualifiedProficiency</t>
@@ -1310,6 +2426,18 @@
     <t>Keyed+PE_StudentAlreadyHasProficiency</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>{0}(은)는 {1} 숙련을 습득하지 않았습니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>PE_StudentAlreadyHasProficiency</t>
   </si>
   <si>
@@ -1319,6 +2447,18 @@
     <t>Keyed+PE_CannotParticipateScheduled</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>{0}(은)는 {1} 이상의 속련을 보유하고 있습니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>PE_CannotParticipateScheduled</t>
   </si>
   <si>
@@ -1346,6 +2486,18 @@
     <t>Keyed+PE_TeacherNotQualifiedProficiency</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>{0} 숙련 수업</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>PE_TeacherNotQualifiedProficiency</t>
   </si>
   <si>
@@ -1355,6 +2507,18 @@
     <t>Keyed+PE_TrainingSkill</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>{0}(은)는 수업을 위한 {1} 숙련을 습득하지 않았습니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>PE_TrainingSkill</t>
   </si>
   <si>
@@ -1364,6 +2528,18 @@
     <t>Keyed+PE_TeacherNotQualifiedSkill</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>{0} 기술 수업</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>PE_TeacherNotQualifiedSkill</t>
   </si>
   <si>
@@ -1373,6 +2549,18 @@
     <t>Keyed+PE_StudentSkillDisabled</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>{0}의 {1} 기술 등급이 너무 낮아 가르칠 수 없습니다. 5 이상의 기술 등급이 필요합니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>PE_StudentSkillDisabled</t>
   </si>
   <si>
@@ -1382,6 +2570,18 @@
     <t>Keyed+PE_MustBeChild</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>{0}의 {1} 기술이 비활성화되어 훈련할 수 없습니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>PE_MustBeChild</t>
   </si>
   <si>
@@ -1391,6 +2591,18 @@
     <t>Keyed+PE_NoLearningNeed</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>어린이여야 합니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>PE_NoLearningNeed</t>
   </si>
   <si>
@@ -1400,12 +2612,27 @@
     <t>Keyed+PE_JobReport_WaitingForStudents</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>학습 욕구 없음.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>PE_JobReport_WaitingForStudents</t>
   </si>
   <si>
     <t>Waiting for students</t>
   </si>
   <si>
+    <t>학생 대기 중</t>
+  </si>
+  <si>
     <t>Keyed+PE_JobReport_WaitingForClass</t>
   </si>
   <si>
@@ -1415,6 +2642,9 @@
     <t>Waiting for class to start</t>
   </si>
   <si>
+    <t>수업 시작 대기 중</t>
+  </si>
+  <si>
     <t>Keyed+PE_GlobalLearningSpeed</t>
   </si>
   <si>
@@ -1424,6 +2654,9 @@
     <t>Global learning speed</t>
   </si>
   <si>
+    <t>전역 학습 속도</t>
+  </si>
+  <si>
     <t>Keyed+PE_SkillClassesLearningSpeed</t>
   </si>
   <si>
@@ -1433,6 +2666,9 @@
     <t>Skill classes learning speed</t>
   </si>
   <si>
+    <t>기술 수업 학습 속도</t>
+  </si>
+  <si>
     <t>Keyed+PE_ProficiencyClassesLearningSpeed</t>
   </si>
   <si>
@@ -1445,15 +2681,39 @@
     <t>Keyed+PE_DaycareClassesLearningSpeed</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>숙련 수업 학습 속도</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>PE_DaycareClassesLearningSpeed</t>
   </si>
   <si>
-    <t>Daycare classes learning speed</t>
+    <t>No classes scheduled. Click the plus button to create a class.</t>
   </si>
   <si>
     <t>Keyed+PE_EnableProficiencySystem</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>돌봄 수업 학습 속도</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>PE_EnableProficiencySystem</t>
   </si>
   <si>
@@ -1463,12 +2723,27 @@
     <t>Keyed+PE_EnableDebugMode</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>숙련 시스템 활성화</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>PE_EnableDebugMode</t>
   </si>
   <si>
     <t>Enable debug mode</t>
   </si>
   <si>
+    <t>디버그 모드 활성화</t>
+  </si>
+  <si>
     <t>Keyed+PE_EnterClassName</t>
   </si>
   <si>
@@ -1478,6 +2753,9 @@
     <t>Enter a class name</t>
   </si>
   <si>
+    <t>수업 이름을 입력하세요</t>
+  </si>
+  <si>
     <t>Keyed+PE_SelectTeacher</t>
   </si>
   <si>
@@ -1487,6 +2765,9 @@
     <t>Select a teacher</t>
   </si>
   <si>
+    <t>교사를 선택하세요</t>
+  </si>
+  <si>
     <t>Keyed+PE_SelectAtLeastOneStudent</t>
   </si>
   <si>
@@ -1496,6 +2777,9 @@
     <t>Select at least one student</t>
   </si>
   <si>
+    <t>최소 한 명 이상의 학생을 선택하세요</t>
+  </si>
+  <si>
     <t>Keyed+PE_TeacherUnassigned</t>
   </si>
   <si>
@@ -1508,6 +2792,18 @@
     <t>Keyed+PE_NoLearningBoard</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>{0}(이)가 교사에서 해제됨: {1}</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>PE_NoLearningBoard</t>
   </si>
   <si>
@@ -1517,6 +2813,18 @@
     <t>Keyed+PE_NoBell</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>교실에 칠판이 없음</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>PE_NoBell</t>
   </si>
   <si>
@@ -1526,6 +2834,18 @@
     <t>Keyed+PE_BellNotPowered</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>지역에 종이 없음</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>PE_BellNotPowered</t>
   </si>
   <si>
@@ -1535,6 +2855,18 @@
     <t>Keyed+PE_StudentUnqualified</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>종에 전력이 공급되지 않음</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>PE_StudentUnqualified</t>
   </si>
   <si>
@@ -1544,12 +2876,27 @@
     <t>Keyed+PE_ClassroomSettings</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>{0}(이)가 수업에 참여할 수 없음: {1}</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>PE_ClassroomSettings</t>
   </si>
   <si>
     <t>Classroom settings</t>
   </si>
   <si>
+    <t>교실 설정</t>
+  </si>
+  <si>
     <t>Keyed+PE_RestrictReservationsDuringClass</t>
   </si>
   <si>
@@ -1562,12 +2909,27 @@
     <t>Keyed+PE_RestrictReservationsDuringClass_Desc</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>교실 내 일반 작업 불허</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>PE_RestrictReservationsDuringClass_Desc</t>
   </si>
   <si>
     <t>If enabled, pawns will not be able to use classroom furniture (desks, etc.).</t>
   </si>
   <si>
+    <t>활성화하면 정착민은 교실 가구(책상 등)를 사용할 수 없습니다.</t>
+  </si>
+  <si>
     <t>Keyed+PE_ClassCancelledOffMap</t>
   </si>
   <si>
@@ -1580,6 +2942,18 @@
     <t>Keyed+PE_ClassCancelledToday</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>오늘의 {0} 수업이 취소되었습니다. 대상이 지역 밖에 존재합니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>PE_ClassCancelledToday</t>
   </si>
   <si>
@@ -1589,15 +2963,39 @@
     <t>Keyed+PE_NoClassesScheduled</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>오늘의 {0} 수업이 취소되었습니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>PE_NoClassesScheduled</t>
   </si>
   <si>
-    <t>No classes scheduled. Click the plus button to create a class</t>
+    <t>Keyed+PE_TriedToEquipButCouldNotDueToLackOfProficiency</t>
   </si>
   <si>
     <t>Patches.ThingDef+Blackboard.label</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>예정된 수업이 없습니다. 버튼을 클릭하여 수업을 만드세요.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>Patches.ThingDef</t>
   </si>
   <si>
@@ -1607,6 +3005,9 @@
     <t>blackboard (1x2)</t>
   </si>
   <si>
+    <t>칠판 (1x2)</t>
+  </si>
+  <si>
     <t>Patches.ThingDef+SchoolDesk.description</t>
   </si>
   <si>
@@ -1619,622 +3020,88 @@
     <t>Patches.ThingDef+Blackboard.description</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>학생들이 수업을 배울 수 있는 책상입니다. 대부분의 수업을 괜찮은 속도로 진행합니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>Blackboard.description</t>
   </si>
   <si>
-    <t>교육</t>
-  </si>
-  <si>
-    <t>칠판 (1x3)</t>
-  </si>
-  <si>
-    <t>타격판</t>
-  </si>
-  <si>
-    <t>훈련용 소총</t>
-  </si>
-  <si>
-    <t>개머리판</t>
-  </si>
-  <si>
-    <t>총열</t>
-  </si>
-  <si>
-    <t>훈련용 활</t>
-  </si>
-  <si>
-    <t>활대</t>
-  </si>
-  <si>
-    <t>화기 숙련</t>
-  </si>
-  <si>
-    <t>생성</t>
-  </si>
-  <si>
-    <t>선택</t>
-  </si>
-  <si>
-    <t>교실</t>
-  </si>
-  <si>
-    <t>참여자</t>
-  </si>
-  <si>
-    <t>일정 보기</t>
-  </si>
-  <si>
-    <t>시간당 경험치</t>
-  </si>
-  <si>
-    <t>{0} 경험치</t>
-  </si>
-  <si>
-    <t>/시간</t>
-  </si>
-  <si>
-    <t>수업 생성</t>
-  </si>
-  <si>
-    <t>수업 이름</t>
-  </si>
-  <si>
-    <t>과목</t>
-  </si>
-  <si>
-    <t>학기 목표</t>
-  </si>
-  <si>
-    <t>종</t>
-  </si>
-  <si>
-    <t>수업 시간:</t>
-  </si>
-  <si>
-    <t>({0}명 참석)</t>
-  </si>
-  <si>
-    <t>시작 시간</t>
-  </si>
-  <si>
-    <t>종료 시간</t>
-  </si>
-  <si>
-    <t>교실:</t>
-  </si>
-  <si>
-    <t>교실 선택</t>
-  </si>
-  <si>
-    <t>사용 가능한 교실이 없습니다.</t>
-  </si>
-  <si>
-    <t>기술</t>
-  </si>
-  <si>
-    <t>학생 관리</t>
-  </si>
-  <si>
-    <t>교실 편집</t>
-  </si>
-  <si>
-    <t>색상 변경</t>
-  </si>
-  <si>
-    <t>새 교실: {0}</t>
-  </si>
-  <si>
-    <t>교사</t>
-  </si>
-  <si>
-    <t>학생</t>
-  </si>
-  <si>
-    <t>수업 취소됨: {0}</t>
-  </si>
-  <si>
-    <t>화기</t>
-  </si>
-  <si>
-    <t>학생 대기 중</t>
-  </si>
-  <si>
-    <t>수업 시작 대기 중</t>
-  </si>
-  <si>
-    <t>전역 학습 속도</t>
-  </si>
-  <si>
-    <t>기술 수업 학습 속도</t>
-  </si>
-  <si>
-    <t>디버그 모드 활성화</t>
-  </si>
-  <si>
-    <t>수업 이름을 입력하세요</t>
-  </si>
-  <si>
-    <t>교사를 선택하세요</t>
-  </si>
-  <si>
-    <t>최소 한 명 이상의 학생을 선택하세요</t>
-  </si>
-  <si>
-    <t>교실 설정</t>
-  </si>
-  <si>
-    <t>활성화하면 정착민은 교실 가구(책상 등)를 사용할 수 없습니다.</t>
-  </si>
-  <si>
-    <t>칠판 (1x2)</t>
-  </si>
-  <si>
-    <t>수업 참여 중</t>
+    <t>PE_TriedToEquipButCouldNotDueToLackOfProficiency</t>
+  </si>
+  <si>
+    <t>A touchscreen display table where students can sit and learn in general classes. Interactive examples appear on the screen to help students learn at lightning fast speed.</t>
+  </si>
+  <si>
+    <t>{0} tried to equip {1} but couldn't due to lack of proficiency</t>
+  </si>
+  <si>
+    <t>Keyed+PE_CreateClassroomFirst</t>
+  </si>
+  <si>
+    <t>PE_CreateClassroomFirst</t>
+  </si>
+  <si>
+    <t>Create a classroom first.</t>
+  </si>
+  <si>
+    <t>고전 장비 숙련</t>
+  </si>
+  <si>
+    <t>고전 장비를 능숙하게 다룹니다.</t>
+  </si>
+  <si>
+    <t>첨단 장비</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>현대 장비 숙련</t>
+  </si>
+  <si>
+    <t>현대 장비를 능숙하게 다룹니다.</t>
+  </si>
+  <si>
+    <t>현대 장비</t>
+  </si>
+  <si>
+    <t>학생들이 수업을 배울 수 있는 책상입니다. 대부분의 수업을 번개처럼 빠른 속도로 알아서 진행합니다.</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>교사는 성인이어야 합니다.</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>교사는 사교 활동이 가능해야 합니다.</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}(이)가 숙련 부족으로 {1}의 장착에 실패함</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>종 울리는 중</t>
+    <t>교실이 필요합니다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>수업 진행 중</t>
+    <t>고전 장비</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>격투 훈련 중</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>사격 훈련 중</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>교실과 수업 내용을 정합니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>기초 교육기술</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>표준 교육기술</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>고급 교육기술</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>학생들을 교육하기 위한 기초적인 학업 설비를 만들 수 있습니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>현대 기술로 더욱 효과적인 학업 설비를 만들 수 있습니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>학생들이 빠르게 수업에 몰입할 수 있는 홀로그램과 터치스크린 학업 설비를 만들 수 있습니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>수업 시작을 위해 학생들을 부르는 시끄러운 종입니다. 교사가 직접 울려야 합니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>전기 학교 종</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>수업 시작을 위해 학생들을 부르는 조용하고 느린 종입니다. 교사가 직접 울려야 합니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>학교 종</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>교실 종</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>자동으로 수업 시작을 알리는 종입니다. 직접 울릴 필요가 없어 일반 종보다 신뢰성이 높습니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>A loud bell used to signal the start of classes. A teacher will manually ring this to call students.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>분필로 글을 쓰기 위한 돌 같은 질감의 평평한 판입니다. 칠판을 설치한 방은 교실로 지정되며 수업을 배정할 수 있습니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>헥스값 붙여넣기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>일정 변경</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>고급 아기 침대</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>천 아기 침대</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>천을 얼기설기 엮어 만든 침대입니다. 졸린 아기에게 안성맞춤입니다. 높은 품질의 침대는 아기를 행복하게 해줍니다. 아기 침대는 한 방에 여러 개를 배치해도 방이 막사로 취급되지 않습니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>금으로 장식까지 한, 안전 칸막이로 양옆을 막은 호화로운 침대입니다. 졸린 아기에게 안성맞춤입니다. 높은 품질의 침대는 아기를 행복하게 해줍니다. 아기 침대는 한 방에 여러 개를 배치해도 방이 막사로 취급되지 않습니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>낡은 교실 책상</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>학생들이 수업을 배울 수 있는 책상입니다. 대부분의 수업을 괜찮은 속도로 진행합니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>터치스크린 교실 책상</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>약간 불편하지만, 학생들이 수업을 배울 수 있는 책상입니다. 대부분의 수업을 느린 속도로 진행합니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>학생들이 수업을 배울 수 있는 책상입니다. 대부분의 수업을 번개처럼 빠른 속도로 진행합니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>빔 프로젝터</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>학습 효율 향상을 위해 칠판에 연결할 수 있는 빔 프로젝터입니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>사격 훈련대</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>연습용 소총이 장착된 금속 표적입니다. 학생들이 사격을 훈련할 수 있습니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>의료 실습을 위해 세세한 근육까지 재현한 모조 시체입니다. 학생들이 의학을 훈련할 수 있습니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>어지간한 타격에 버티도록 설계된 널빤지입니다. 학생들이 격투를 훈련할 수 있습니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>훈련용 소총 탄환</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>순수하게 교육용으로 설계된 무기입니다. 총알은 아무런 피해도 주지 않습니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>순수하게 교육용으로 설계된 무기입니다. 화살은 아무런 피해도 주지 않습니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>훈련용 화살</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>low-tech proficient</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>화기 숙련</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>냉병기 숙련</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>냉병기를 능숙하게 다룹니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>화기를 능숙하게 다룹니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>시간당 진행도</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>정착지에 존재하는 교실을 표시합니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>현재 수업</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>교사와 학생을 지정해 새로운 수업을 진행합니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>목표 기술</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>수업을 삭제하시겠습니까? 모든 학습 진행 상황이 초기화됩니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>연속 학습 시간 필요: {0}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>필요:</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>칠판</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>홀로그램 칠판 (1x2)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>홀로그램 칠판 (1x3)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>화이트보드 칠판 (1x2)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>화이트보드 칠판 (1x3)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>석재 칠판</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>기초적인 수업을 가르치기 위한 울퉁불퉁한 판입니다. 칠판을 설치한 방은 교실로 지정되며 수업을 배정할 수 있습니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>마커로 글을 쓰기 위한 평평한 판입니다. 매끄러운 표면 덕분에 쓰고 지우기가 쉬워 수업의 효율이 올라갑니다. 칠판을 설치한 방은 교실로 지정되며 수업을 배정할 수 있습니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>번개같은 속도로 알아서 수업을 진행하는 홀로그램 디스플레이입니다. 칠판을 설치한 방은 교실로 지정되며 수업을 배정할 수 있습니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>해부용 모조 시체</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>교실 책상</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>지도에 존재하지 않음</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{0}(이)가 부족합니다. 필요: {1}, 보유: {2}.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>돌봄</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이들의 학습 요구를 충족합니다. 삭제될 때까지 일정에 존재합니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>수업 일정 변경</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>목표 기술이 존재하지 않음</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>수업: {0}:00 - {1}:00</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>수업에서 퇴출</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>학생 퇴출</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{0}(을)를 수업에서 퇴출시키겠습니까? 다시 참가할 수 없습니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이 학생을 퇴출하면 남은 학생이 없어 수업이 사라집니다. 계속하시겠습니까?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이름 지정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>교실을 만들었습니다. 수업은 하단 UI의 교육에서 관리할 수 있습니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>방청객</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>참여하지 않음</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>미성년자는 교사가 될 수 없습니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>사교가 불가능하여 교사가 될 수 없습니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>모든 학생이 제때 수업에 참석하지 않아 "{0}" 수업이 취소되었습니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>결석자: {0}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>수업 수료: {0}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>성공적으로 "{0}" 수업이 학기를 마쳤습니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>졸업생: {0}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>첨단 장비를 능숙하게 다룹니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>냉병기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>첨단 장비</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>첨단 장비 숙련</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>목표 숙련</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{0} 숙련을 습득해야 사용할 수 있습니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>숙련</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{0}(은)는 {1} 숙련을 습득하지 않았습니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{0}(은)는 {1} 이상의 속련을 보유하고 있습니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>참여 불가: {0}:00-{1}:00 동안 "{2}" 수업 일정이 존재합니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>일정 조정 불가: {0}(은)는 {1}:00-{2}:00 동안 "{3}" 수업 일정이 존재합니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{0} 숙련 수업</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{0}(은)는 수업을 위한 {1} 숙련을 습득하지 않았습니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{0} 기술 수업</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{0}의 {1} 기술 등급이 너무 낮아 가르칠 수 없습니다. 5 이상의 기술 등급이 필요합니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{0}의 {1} 기술이 비활성화되어 훈련할 수 없습니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>어린이여야 합니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>학습 욕구 없음.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>숙련 수업 학습 속도</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>돌봄 수업 학습 속도</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>숙련 시스템 활성화</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{0}(이)가 교사에서 해제됨: {1}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>교실에 칠판이 없음</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>지역에 종이 없음</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>종에 전력이 공급되지 않음</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{0}(이)가 수업에 참여할 수 없음: {1}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>교실 내 일반 작업 불허</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>오늘의 {0} 수업이 취소되었습니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>오늘의 {0} 수업이 취소되었습니다. 대상이 지역 밖에 존재합니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>예정된 수업이 없습니다. 버튼을 클릭하여 수업을 만드세요.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>일정 조정 불가: {0}(은)는 {1}:00-{2}:00 동안 "{3}" 수업 일정에 배정되었습니다.</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>참여 불가: {0}:00-{1}:00 동안 "{2}" 수업 일정에 배정되었습니다.</t>
+    <phoneticPr fontId="0" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2281,9 +3148,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2586,16 +3454,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F177"/>
+  <dimension ref="A1:F179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="F178" sqref="F178"/>
+    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="F164" sqref="F164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="7" width="9.1796875" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="9.1796875" style="1" customWidth="1"/>
+    <col min="2" max="4" width="9.1796875" style="1"/>
+    <col min="5" max="5" width="9.1796875" style="2"/>
+    <col min="6" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
@@ -2611,7 +3481,7 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -2628,2986 +3498,3020 @@
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>529</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="E3" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="F3" s="1" t="s">
-        <v>578</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>579</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>580</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>581</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>582</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>529</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>583</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>584</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>587</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>585</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>45</v>
+        <v>54</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>588</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>48</v>
+        <v>58</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>586</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>51</v>
+        <v>62</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>589</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>55</v>
+        <v>67</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>594</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>58</v>
+        <v>71</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>592</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>61</v>
+        <v>75</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>593</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>596</v>
+        <v>79</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>590</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>66</v>
+        <v>83</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>591</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>69</v>
+        <v>87</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>595</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>72</v>
+        <v>91</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>637</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>75</v>
+        <v>95</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>638</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>78</v>
+        <v>99</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>530</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>81</v>
+        <v>103</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>597</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>84</v>
+        <v>107</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>108</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>635</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>87</v>
+        <v>111</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>639</v>
+        <v>114</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>90</v>
+        <v>115</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>636</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>87</v>
+        <v>119</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>639</v>
+        <v>114</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>95</v>
+        <v>120</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>633</v>
+        <v>124</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>98</v>
+        <v>125</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>126</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>640</v>
+        <v>128</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>101</v>
+        <v>129</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>130</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>634</v>
+        <v>132</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>98</v>
+        <v>133</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>126</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>640</v>
+        <v>128</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
-        <v>104</v>
+        <v>135</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>106</v>
+        <v>134</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>600</v>
+        <v>138</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
-        <v>107</v>
+        <v>137</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>109</v>
+        <v>139</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>140</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>603</v>
+        <v>142</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
-        <v>110</v>
+        <v>141</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>112</v>
+        <v>143</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>144</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>601</v>
+        <v>146</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
-        <v>113</v>
+        <v>145</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>115</v>
+        <v>147</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>148</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>602</v>
+        <v>150</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
-        <v>116</v>
+        <v>149</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>118</v>
+        <v>151</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>152</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>604</v>
+        <v>154</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
-        <v>119</v>
+        <v>153</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>121</v>
+        <v>155</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>156</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>607</v>
+        <v>158</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
-        <v>122</v>
+        <v>157</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>124</v>
+        <v>159</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>160</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>606</v>
+        <v>162</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
-        <v>125</v>
+        <v>161</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>127</v>
+        <v>163</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>683</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>608</v>
+        <v>694</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
-        <v>128</v>
+        <v>165</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>130</v>
+        <v>166</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>609</v>
+        <v>169</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
-        <v>131</v>
+        <v>168</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>133</v>
+        <v>170</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>171</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>610</v>
+        <v>173</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
-        <v>134</v>
+        <v>172</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>136</v>
+        <v>174</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>175</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>531</v>
+        <v>176</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
-        <v>137</v>
+        <v>177</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>139</v>
+        <v>178</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>614</v>
+        <v>181</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>142</v>
+        <v>182</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>183</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>641</v>
+        <v>185</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
-        <v>143</v>
+        <v>184</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>145</v>
+        <v>186</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>187</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>613</v>
+        <v>189</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
-        <v>146</v>
+        <v>188</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>148</v>
+        <v>190</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>191</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>611</v>
+        <v>193</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
-        <v>149</v>
+        <v>192</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>151</v>
+        <v>194</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>195</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>612</v>
+        <v>197</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
-        <v>152</v>
+        <v>196</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>154</v>
+        <v>198</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>199</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>532</v>
+        <v>200</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
-        <v>155</v>
+        <v>201</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>157</v>
+        <v>202</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>203</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>616</v>
+        <v>205</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
-        <v>158</v>
+        <v>204</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>154</v>
+        <v>206</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>199</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>532</v>
+        <v>200</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A53" s="1" t="s">
-        <v>160</v>
+        <v>207</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>162</v>
+        <v>208</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>209</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>533</v>
+        <v>210</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
-        <v>163</v>
+        <v>211</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>165</v>
+        <v>212</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>213</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>534</v>
+        <v>214</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
-        <v>166</v>
+        <v>215</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>168</v>
+        <v>216</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>217</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>615</v>
+        <v>219</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A56" s="1" t="s">
-        <v>169</v>
+        <v>218</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>171</v>
+        <v>220</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>221</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>535</v>
+        <v>222</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A57" s="1" t="s">
-        <v>172</v>
+        <v>223</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>157</v>
+        <v>224</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>203</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>617</v>
+        <v>226</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A58" s="1" t="s">
-        <v>174</v>
+        <v>225</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>171</v>
+        <v>227</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>221</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>535</v>
+        <v>222</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A59" s="1" t="s">
-        <v>176</v>
+        <v>228</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>178</v>
+        <v>229</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>230</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>536</v>
+        <v>231</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A60" s="1" t="s">
-        <v>179</v>
+        <v>232</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>181</v>
+        <v>233</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>234</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>618</v>
+        <v>236</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A61" s="1" t="s">
-        <v>182</v>
+        <v>235</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>183</v>
+        <v>237</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>619</v>
+        <v>238</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>621</v>
+        <v>688</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A62" s="1" t="s">
-        <v>186</v>
+        <v>239</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>183</v>
+        <v>237</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>188</v>
+        <v>241</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>242</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>622</v>
+        <v>689</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A63" s="1" t="s">
-        <v>189</v>
+        <v>243</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>183</v>
+        <v>237</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>185</v>
+        <v>244</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>245</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>621</v>
+        <v>688</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A64" s="1" t="s">
-        <v>191</v>
+        <v>247</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>183</v>
+        <v>237</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>188</v>
+        <v>246</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>242</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>622</v>
+        <v>689</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A65" s="1" t="s">
-        <v>193</v>
+        <v>249</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>183</v>
+        <v>237</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>195</v>
+        <v>248</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>250</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>620</v>
+        <v>691</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A66" s="1" t="s">
-        <v>196</v>
+        <v>251</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>183</v>
+        <v>237</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>198</v>
+        <v>252</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>253</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>623</v>
+        <v>692</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A67" s="1" t="s">
-        <v>199</v>
+        <v>254</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>183</v>
+        <v>237</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>195</v>
+        <v>255</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>250</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>537</v>
+        <v>691</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A68" s="1" t="s">
-        <v>201</v>
+        <v>256</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>183</v>
+        <v>237</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>198</v>
+        <v>257</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>253</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>623</v>
+        <v>692</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A69" s="1" t="s">
-        <v>203</v>
+        <v>259</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>183</v>
+        <v>237</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>205</v>
+        <v>258</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>260</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>668</v>
+        <v>262</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A70" s="1" t="s">
-        <v>206</v>
+        <v>261</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>183</v>
+        <v>237</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>208</v>
+        <v>263</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>264</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>665</v>
+        <v>266</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A71" s="1" t="s">
-        <v>209</v>
+        <v>265</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>183</v>
+        <v>237</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>205</v>
+        <v>267</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>260</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>668</v>
+        <v>262</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A72" s="1" t="s">
-        <v>211</v>
+        <v>269</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>183</v>
+        <v>237</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>208</v>
+        <v>268</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>264</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>665</v>
+        <v>266</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A73" s="1" t="s">
-        <v>213</v>
+        <v>271</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>214</v>
+        <v>270</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>216</v>
+        <v>272</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>273</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>538</v>
+        <v>274</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A74" s="1" t="s">
-        <v>217</v>
+        <v>275</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>214</v>
+        <v>270</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>219</v>
+        <v>276</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>277</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>539</v>
+        <v>278</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A75" s="1" t="s">
-        <v>220</v>
+        <v>279</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>214</v>
+        <v>270</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>222</v>
+        <v>280</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>281</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>598</v>
+        <v>283</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A76" s="1" t="s">
-        <v>223</v>
+        <v>282</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>214</v>
+        <v>270</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>225</v>
+        <v>284</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>285</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>626</v>
+        <v>287</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A77" s="1" t="s">
-        <v>226</v>
+        <v>286</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>214</v>
+        <v>270</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>228</v>
+        <v>288</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>289</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>540</v>
+        <v>290</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A78" s="1" t="s">
-        <v>229</v>
+        <v>291</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>214</v>
+        <v>270</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>231</v>
+        <v>292</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>293</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>541</v>
+        <v>294</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A79" s="1" t="s">
-        <v>232</v>
+        <v>295</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>214</v>
+        <v>270</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>234</v>
+        <v>296</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>297</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>234</v>
+        <v>297</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A80" s="1" t="s">
-        <v>235</v>
+        <v>298</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>214</v>
+        <v>270</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>237</v>
+        <v>299</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>300</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>599</v>
+        <v>302</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A81" s="1" t="s">
-        <v>238</v>
+        <v>301</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>214</v>
+        <v>270</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>240</v>
+        <v>303</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>304</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>542</v>
+        <v>305</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A82" s="1" t="s">
-        <v>241</v>
+        <v>306</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>214</v>
+        <v>270</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>243</v>
+        <v>307</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>308</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>624</v>
+        <v>310</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A83" s="1" t="s">
-        <v>244</v>
+        <v>309</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>214</v>
+        <v>270</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>246</v>
+        <v>311</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>312</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>543</v>
+        <v>313</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A84" s="1" t="s">
-        <v>247</v>
+        <v>314</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>214</v>
+        <v>270</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>249</v>
+        <v>315</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>316</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>544</v>
+        <v>317</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A85" s="1" t="s">
-        <v>250</v>
+        <v>318</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>214</v>
+        <v>270</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>252</v>
+        <v>319</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>320</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>545</v>
+        <v>321</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A86" s="1" t="s">
-        <v>253</v>
+        <v>322</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>214</v>
+        <v>270</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>255</v>
+        <v>323</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>625</v>
+        <v>326</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A87" s="1" t="s">
-        <v>256</v>
+        <v>325</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>214</v>
+        <v>270</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>258</v>
+        <v>327</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>328</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>546</v>
+        <v>329</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A88" s="1" t="s">
-        <v>259</v>
+        <v>330</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>214</v>
+        <v>270</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>261</v>
+        <v>331</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>332</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>627</v>
+        <v>334</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A89" s="1" t="s">
-        <v>262</v>
+        <v>333</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>214</v>
+        <v>270</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>264</v>
+        <v>335</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>336</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>547</v>
+        <v>337</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A90" s="1" t="s">
-        <v>265</v>
+        <v>338</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>214</v>
+        <v>270</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>267</v>
+        <v>339</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>340</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>548</v>
+        <v>341</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A91" s="1" t="s">
-        <v>268</v>
+        <v>342</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>214</v>
+        <v>270</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>270</v>
+        <v>343</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>344</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>628</v>
+        <v>346</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A92" s="1" t="s">
-        <v>271</v>
+        <v>345</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>214</v>
+        <v>270</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>273</v>
+        <v>347</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>348</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>669</v>
+        <v>350</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A93" s="1" t="s">
-        <v>274</v>
+        <v>349</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>214</v>
+        <v>270</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>276</v>
+        <v>351</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>352</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>549</v>
+        <v>353</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A94" s="1" t="s">
-        <v>277</v>
+        <v>354</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>214</v>
+        <v>270</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>279</v>
+        <v>355</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>356</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>629</v>
+        <v>358</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A95" s="1" t="s">
-        <v>280</v>
+        <v>357</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>214</v>
+        <v>270</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>282</v>
+        <v>359</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>360</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>630</v>
+        <v>362</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A96" s="1" t="s">
-        <v>283</v>
+        <v>361</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>214</v>
+        <v>270</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>285</v>
+        <v>363</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>364</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>631</v>
+        <v>366</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A97" s="1" t="s">
-        <v>286</v>
+        <v>365</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>214</v>
+        <v>270</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>288</v>
+        <v>367</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>368</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>632</v>
+        <v>370</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A98" s="1" t="s">
-        <v>289</v>
+        <v>369</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>214</v>
+        <v>270</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>291</v>
+        <v>371</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>372</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>550</v>
+        <v>373</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A99" s="1" t="s">
-        <v>292</v>
+        <v>374</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>214</v>
+        <v>270</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>294</v>
+        <v>375</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>376</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>642</v>
+        <v>378</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A100" s="1" t="s">
-        <v>295</v>
+        <v>377</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>214</v>
+        <v>270</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>297</v>
+        <v>379</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>380</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>551</v>
+        <v>381</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A101" s="1" t="s">
-        <v>298</v>
+        <v>382</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>214</v>
+        <v>270</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>300</v>
+        <v>383</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>384</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>552</v>
+        <v>385</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A102" s="1" t="s">
-        <v>301</v>
+        <v>386</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>214</v>
+        <v>270</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>303</v>
+        <v>387</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>388</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>643</v>
+        <v>390</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A103" s="1" t="s">
-        <v>304</v>
+        <v>389</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>214</v>
+        <v>270</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>306</v>
+        <v>391</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>392</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>553</v>
+        <v>393</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A104" s="1" t="s">
-        <v>307</v>
+        <v>394</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>214</v>
+        <v>270</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>309</v>
+        <v>395</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>396</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>554</v>
+        <v>397</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A105" s="1" t="s">
-        <v>310</v>
+        <v>398</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>214</v>
+        <v>270</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>312</v>
+        <v>399</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>400</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>555</v>
+        <v>401</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A106" s="1" t="s">
-        <v>313</v>
+        <v>402</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>214</v>
+        <v>270</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>315</v>
+        <v>403</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>404</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>556</v>
+        <v>405</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A107" s="1" t="s">
-        <v>316</v>
+        <v>406</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>214</v>
+        <v>270</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>318</v>
+        <v>407</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>408</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>557</v>
+        <v>409</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A108" s="1" t="s">
-        <v>319</v>
+        <v>410</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>214</v>
+        <v>270</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>321</v>
+        <v>411</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>412</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>644</v>
+        <v>414</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A109" s="1" t="s">
-        <v>322</v>
+        <v>413</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>214</v>
+        <v>270</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>324</v>
+        <v>415</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>416</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>558</v>
+        <v>417</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A110" s="1" t="s">
-        <v>325</v>
+        <v>418</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>214</v>
+        <v>270</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>327</v>
+        <v>419</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>420</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>671</v>
+        <v>422</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A111" s="1" t="s">
-        <v>328</v>
+        <v>421</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>214</v>
+        <v>270</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>330</v>
+        <v>423</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>424</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>645</v>
+        <v>426</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A112" s="1" t="s">
-        <v>331</v>
+        <v>425</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>214</v>
+        <v>270</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>333</v>
+        <v>427</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>428</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>646</v>
+        <v>430</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A113" s="1" t="s">
-        <v>334</v>
+        <v>429</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>214</v>
+        <v>270</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="E113" s="1" t="s">
-        <v>336</v>
+        <v>431</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>432</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>647</v>
+        <v>434</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A114" s="1" t="s">
-        <v>337</v>
+        <v>433</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>214</v>
+        <v>270</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="E114" s="1" t="s">
-        <v>339</v>
+        <v>435</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>436</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>648</v>
+        <v>438</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A115" s="1" t="s">
-        <v>340</v>
+        <v>437</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>214</v>
+        <v>270</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="E115" s="1" t="s">
-        <v>342</v>
+        <v>439</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>440</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>649</v>
+        <v>442</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A116" s="1" t="s">
-        <v>343</v>
+        <v>441</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>214</v>
+        <v>270</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="E116" s="1" t="s">
-        <v>345</v>
+        <v>443</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>444</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>559</v>
+        <v>445</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A117" s="1" t="s">
-        <v>346</v>
+        <v>446</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>214</v>
+        <v>270</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="E117" s="1" t="s">
-        <v>348</v>
+        <v>447</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>448</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>651</v>
+        <v>450</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A118" s="1" t="s">
-        <v>349</v>
+        <v>449</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>214</v>
+        <v>270</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="E118" s="1" t="s">
-        <v>351</v>
+        <v>451</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>452</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>650</v>
+        <v>454</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A119" s="1" t="s">
-        <v>352</v>
+        <v>453</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>214</v>
+        <v>270</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="E119" s="1" t="s">
-        <v>354</v>
+        <v>455</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>456</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>652</v>
+        <v>458</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A120" s="1" t="s">
-        <v>355</v>
+        <v>457</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>214</v>
+        <v>270</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="E120" s="1" t="s">
-        <v>357</v>
+        <v>459</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>460</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>653</v>
+        <v>462</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A121" s="1" t="s">
-        <v>358</v>
+        <v>461</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>214</v>
+        <v>270</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="E121" s="1" t="s">
-        <v>360</v>
+        <v>463</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>464</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>560</v>
+        <v>465</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A122" s="1" t="s">
-        <v>361</v>
+        <v>466</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>214</v>
+        <v>270</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="E122" s="1" t="s">
-        <v>363</v>
+        <v>467</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>468</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>561</v>
+        <v>469</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A123" s="1" t="s">
-        <v>364</v>
+        <v>470</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>214</v>
+        <v>270</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="E123" s="1" t="s">
-        <v>366</v>
+        <v>471</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>472</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>654</v>
+        <v>474</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A124" s="1" t="s">
-        <v>367</v>
+        <v>473</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>214</v>
+        <v>270</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="E124" s="1" t="s">
-        <v>369</v>
+        <v>475</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>476</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>562</v>
+        <v>477</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A125" s="1" t="s">
-        <v>370</v>
+        <v>478</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>214</v>
+        <v>270</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="E125" s="1" t="s">
-        <v>372</v>
+        <v>479</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>480</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>655</v>
+        <v>482</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A126" s="1" t="s">
-        <v>373</v>
+        <v>481</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>214</v>
+        <v>270</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="E126" s="1" t="s">
-        <v>375</v>
+        <v>483</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>484</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>656</v>
+        <v>486</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A127" s="1" t="s">
-        <v>376</v>
+        <v>485</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>214</v>
+        <v>270</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="E127" s="1" t="s">
-        <v>378</v>
+        <v>487</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>488</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>657</v>
+        <v>490</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A128" s="1" t="s">
-        <v>379</v>
+        <v>489</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>214</v>
+        <v>270</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="E128" s="1" t="s">
-        <v>381</v>
+        <v>491</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>492</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>563</v>
+        <v>493</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A129" s="1" t="s">
-        <v>382</v>
+        <v>494</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>214</v>
+        <v>270</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="E129" s="1" t="s">
-        <v>384</v>
+        <v>495</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>496</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>564</v>
+        <v>497</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A130" s="1" t="s">
-        <v>385</v>
+        <v>498</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>214</v>
+        <v>270</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="E130" s="1" t="s">
-        <v>387</v>
+        <v>499</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>500</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>658</v>
+        <v>695</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A131" s="1" t="s">
-        <v>388</v>
+        <v>501</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>214</v>
+        <v>270</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="E131" s="1" t="s">
-        <v>390</v>
+        <v>502</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>503</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>659</v>
+        <v>696</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A132" s="1" t="s">
-        <v>391</v>
+        <v>504</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>214</v>
+        <v>270</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="E132" s="1" t="s">
-        <v>393</v>
+        <v>505</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>506</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>565</v>
+        <v>507</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A133" s="1" t="s">
-        <v>394</v>
+        <v>508</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>214</v>
+        <v>270</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="E133" s="1" t="s">
-        <v>396</v>
+        <v>509</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>510</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>660</v>
+        <v>512</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A134" s="1" t="s">
-        <v>397</v>
+        <v>511</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>214</v>
+        <v>270</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="E134" s="1" t="s">
-        <v>399</v>
+        <v>513</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>514</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>661</v>
+        <v>516</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A135" s="1" t="s">
-        <v>400</v>
+        <v>515</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>214</v>
+        <v>270</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="E135" s="1" t="s">
-        <v>402</v>
+        <v>517</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>518</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>662</v>
+        <v>520</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A136" s="1" t="s">
-        <v>403</v>
+        <v>519</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>214</v>
+        <v>270</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="E136" s="1" t="s">
-        <v>405</v>
+        <v>521</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>522</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>663</v>
+        <v>524</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A137" s="1" t="s">
-        <v>406</v>
+        <v>523</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>214</v>
+        <v>270</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="E137" s="1" t="s">
-        <v>408</v>
+        <v>525</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>526</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>664</v>
+        <v>528</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A138" s="1" t="s">
-        <v>409</v>
+        <v>527</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>214</v>
+        <v>270</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="E138" s="1" t="s">
-        <v>411</v>
+        <v>529</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>530</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>670</v>
+        <v>532</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A139" s="1" t="s">
-        <v>412</v>
+        <v>531</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>214</v>
+        <v>270</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="E139" s="1" t="s">
-        <v>414</v>
+        <v>533</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>164</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>666</v>
+        <v>699</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A140" s="1" t="s">
-        <v>415</v>
+        <v>535</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>214</v>
+        <v>270</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="E140" s="1" t="s">
-        <v>417</v>
+        <v>536</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>534</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>566</v>
+        <v>693</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A141" s="1" t="s">
-        <v>418</v>
+        <v>538</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>214</v>
+        <v>270</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="E141" s="1" t="s">
-        <v>420</v>
+        <v>539</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>537</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>667</v>
+        <v>690</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A142" s="1" t="s">
-        <v>421</v>
+        <v>541</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>214</v>
+        <v>270</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="E142" s="1" t="s">
-        <v>423</v>
+        <v>542</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>543</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>672</v>
+        <v>545</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A143" s="1" t="s">
-        <v>424</v>
+        <v>544</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>214</v>
+        <v>270</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="E143" s="1" t="s">
-        <v>426</v>
+        <v>546</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>547</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>673</v>
+        <v>549</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A144" s="1" t="s">
-        <v>427</v>
+        <v>548</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>214</v>
+        <v>270</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="E144" s="1" t="s">
-        <v>429</v>
+        <v>550</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>551</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>674</v>
+        <v>701</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A145" s="1" t="s">
-        <v>430</v>
+        <v>552</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>214</v>
+        <v>270</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="E145" s="1" t="s">
-        <v>432</v>
+        <v>553</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>554</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>675</v>
+        <v>700</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A146" s="1" t="s">
-        <v>433</v>
+        <v>555</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>214</v>
+        <v>270</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="E146" s="1" t="s">
-        <v>435</v>
+        <v>556</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>557</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>676</v>
+        <v>559</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A147" s="1" t="s">
-        <v>436</v>
+        <v>558</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>214</v>
+        <v>270</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="E147" s="1" t="s">
-        <v>438</v>
+        <v>560</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>561</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>677</v>
+        <v>563</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A148" s="1" t="s">
-        <v>439</v>
+        <v>562</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>214</v>
+        <v>270</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="E148" s="1" t="s">
-        <v>441</v>
+        <v>564</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>565</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>678</v>
+        <v>567</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A149" s="1" t="s">
-        <v>442</v>
+        <v>566</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>214</v>
+        <v>270</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="E149" s="1" t="s">
-        <v>444</v>
+        <v>568</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>569</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>679</v>
+        <v>571</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A150" s="1" t="s">
-        <v>445</v>
+        <v>570</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>214</v>
+        <v>270</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="E150" s="1" t="s">
-        <v>447</v>
+        <v>572</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>573</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>680</v>
+        <v>575</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A151" s="1" t="s">
-        <v>448</v>
+        <v>574</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>214</v>
+        <v>270</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="E151" s="1" t="s">
-        <v>450</v>
+        <v>576</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>577</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>681</v>
+        <v>579</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A152" s="1" t="s">
-        <v>451</v>
+        <v>578</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>214</v>
+        <v>270</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="E152" s="1" t="s">
-        <v>453</v>
+        <v>580</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>581</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>682</v>
+        <v>583</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A153" s="1" t="s">
-        <v>454</v>
+        <v>582</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>214</v>
+        <v>270</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="E153" s="1" t="s">
-        <v>456</v>
+        <v>584</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>585</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>567</v>
+        <v>586</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A154" s="1" t="s">
-        <v>457</v>
+        <v>587</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>214</v>
+        <v>270</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="E154" s="1" t="s">
-        <v>459</v>
+        <v>588</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>589</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>568</v>
+        <v>590</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A155" s="1" t="s">
-        <v>460</v>
+        <v>591</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>214</v>
+        <v>270</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="E155" s="1" t="s">
-        <v>462</v>
+        <v>592</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>593</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>569</v>
+        <v>594</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A156" s="1" t="s">
-        <v>463</v>
+        <v>595</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>214</v>
+        <v>270</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="E156" s="1" t="s">
-        <v>465</v>
+        <v>596</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>597</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>570</v>
+        <v>598</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A157" s="1" t="s">
-        <v>466</v>
+        <v>599</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>214</v>
+        <v>270</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="E157" s="1" t="s">
-        <v>468</v>
+        <v>600</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>601</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>683</v>
+        <v>603</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A158" s="1" t="s">
-        <v>469</v>
+        <v>602</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>214</v>
+        <v>270</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="E158" s="1" t="s">
-        <v>471</v>
+        <v>604</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>540</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>684</v>
+        <v>607</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A159" s="1" t="s">
-        <v>472</v>
+        <v>606</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>214</v>
+        <v>270</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="E159" s="1" t="s">
-        <v>474</v>
+        <v>608</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>609</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>685</v>
+        <v>611</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A160" s="1" t="s">
-        <v>475</v>
+        <v>610</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>214</v>
+        <v>270</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="E160" s="1" t="s">
-        <v>477</v>
+        <v>612</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>613</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>571</v>
+        <v>614</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A161" s="1" t="s">
-        <v>478</v>
+        <v>615</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>214</v>
+        <v>270</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="E161" s="1" t="s">
-        <v>480</v>
+        <v>616</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>617</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>572</v>
+        <v>618</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A162" s="1" t="s">
-        <v>481</v>
+        <v>619</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>214</v>
+        <v>270</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="E162" s="1" t="s">
-        <v>483</v>
+        <v>620</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>621</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>573</v>
+        <v>622</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A163" s="1" t="s">
-        <v>484</v>
+        <v>623</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>214</v>
+        <v>270</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="E163" s="1" t="s">
-        <v>486</v>
+        <v>624</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>625</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>574</v>
+        <v>626</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A164" s="1" t="s">
-        <v>487</v>
+        <v>627</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>214</v>
+        <v>270</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="E164" s="1" t="s">
-        <v>489</v>
+        <v>628</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>629</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>686</v>
+        <v>631</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A165" s="1" t="s">
-        <v>490</v>
+        <v>630</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>214</v>
+        <v>270</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="E165" s="1" t="s">
-        <v>492</v>
+        <v>632</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>633</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>687</v>
+        <v>635</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A166" s="1" t="s">
-        <v>493</v>
+        <v>634</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>214</v>
+        <v>270</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="E166" s="1" t="s">
-        <v>495</v>
+        <v>636</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>637</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>688</v>
+        <v>639</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A167" s="1" t="s">
-        <v>496</v>
+        <v>638</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>214</v>
+        <v>270</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="E167" s="1" t="s">
-        <v>498</v>
+        <v>640</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>641</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>689</v>
+        <v>643</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A168" s="1" t="s">
-        <v>499</v>
+        <v>642</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>214</v>
+        <v>270</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="E168" s="1" t="s">
-        <v>501</v>
+        <v>644</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>645</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>690</v>
+        <v>647</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A169" s="1" t="s">
-        <v>502</v>
+        <v>646</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>214</v>
+        <v>270</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="E169" s="1" t="s">
-        <v>504</v>
+        <v>648</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>649</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>575</v>
+        <v>650</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A170" s="1" t="s">
-        <v>505</v>
+        <v>651</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>214</v>
+        <v>270</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="E170" s="1" t="s">
-        <v>507</v>
+        <v>652</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>653</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>691</v>
+        <v>655</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A171" s="1" t="s">
-        <v>508</v>
+        <v>654</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>214</v>
+        <v>270</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="E171" s="1" t="s">
-        <v>510</v>
+        <v>656</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>657</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>576</v>
+        <v>658</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A172" s="1" t="s">
-        <v>511</v>
+        <v>659</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>214</v>
+        <v>270</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="E172" s="1" t="s">
-        <v>513</v>
+        <v>660</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>661</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>693</v>
+        <v>663</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A173" s="1" t="s">
-        <v>514</v>
+        <v>662</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>214</v>
+        <v>270</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="E173" s="1" t="s">
-        <v>516</v>
+        <v>664</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>665</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>692</v>
+        <v>667</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A174" s="1" t="s">
-        <v>517</v>
+        <v>666</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>214</v>
+        <v>270</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="E174" s="1" t="s">
-        <v>519</v>
+        <v>668</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>605</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>694</v>
+        <v>671</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A175" s="1" t="s">
-        <v>520</v>
+        <v>670</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>521</v>
+        <v>672</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="E175" s="1" t="s">
-        <v>523</v>
+        <v>673</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>674</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>577</v>
+        <v>675</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A176" s="1" t="s">
-        <v>524</v>
+        <v>676</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>521</v>
+        <v>672</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="E176" s="1" t="s">
-        <v>526</v>
+        <v>677</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>678</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>605</v>
+        <v>680</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A177" s="1" t="s">
-        <v>527</v>
+        <v>679</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>521</v>
+        <v>672</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="E177" s="1" t="s">
-        <v>81</v>
+        <v>681</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>597</v>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A178" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="F178" s="1" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A179" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="F179" s="1" t="s">
+        <v>698</v>
       </c>
     </row>
   </sheetData>
